--- a/curation/draft/package13/R13_BC_SDTM_QRS_TANNER-SCALE-GIRL.xlsx
+++ b/curation/draft/package13/R13_BC_SDTM_QRS_TANNER-SCALE-GIRL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\cdisc-org\COSMoS\curation\draft\package13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D9F2157-4B3F-46EC-A95B-7F19928C3F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E44C2F7B-A81F-4C7C-84DE-7BA11129981E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="915" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BC_TS-GIRL" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'BC_TS-GIRL'!$A$1:$S$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'SDTM_TS-GIRL'!$A$1:$AG$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="128">
   <si>
     <t>package_date</t>
   </si>
@@ -422,6 +422,9 @@
   </si>
   <si>
     <t>QRS; Clinical or Research Assessment Classification; Tanner Scale-Girl Clinical Classification Question; Tanner Scale Girl Version; TANN01; TANNER SCALE GIRL; Tanner Scale Girl Version; Tanner Scale-Girl</t>
+  </si>
+  <si>
+    <t>CCCAT</t>
   </si>
 </sst>
 </file>
@@ -790,7 +793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
@@ -1199,8 +1202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9496C4D5-5947-423F-AB5C-A7EF43995234}">
   <dimension ref="A1:AG13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1518,7 +1521,7 @@
         <v>73</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>72</v>
+        <v>127</v>
       </c>
       <c r="P4" s="4" t="s">
         <v>99</v>
@@ -1938,7 +1941,7 @@
         <v>73</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>72</v>
+        <v>127</v>
       </c>
       <c r="P10" s="4" t="s">
         <v>99</v>
